--- a/tests/1.xlsx
+++ b/tests/1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayala\Documents\GitHub\task1_oxygen\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayala\Documents\GitHub\task1_oxygen\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B10188B-44E2-4E55-B88A-C1C9FE66EE1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3229AE5-5881-4E20-9B7D-3B8515471DD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>menu_list</t>
   </si>
@@ -54,12 +54,6 @@
     <t>0548819925,</t>
   </si>
   <si>
-    <t>Tiffany,</t>
-  </si>
-  <si>
-    <t>0518853395,</t>
-  </si>
-  <si>
     <t>print text</t>
   </si>
   <si>
@@ -67,9 +61,6 @@
   </si>
   <si>
     <t>name</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
 </sst>
 </file>
@@ -412,7 +403,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -428,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>4</v>
@@ -440,7 +433,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
@@ -455,7 +448,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>7</v>
@@ -465,19 +458,11 @@
       </c>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="F4" s="1"/>
     </row>
   </sheetData>
